--- a/medicine/Enfance/Kai_Lüftner/Kai_Lüftner.xlsx
+++ b/medicine/Enfance/Kai_Lüftner/Kai_Lüftner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kai_L%C3%BCftner</t>
+          <t>Kai_Lüftner</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kai Lüftner (né le 12 janvier 1975 à Berlin) est un auteur allemand de littérature de jeunesse, musicien, compositeur, arrangeur et directeur de publication audio[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kai Lüftner (né le 12 janvier 1975 à Berlin) est un auteur allemand de littérature de jeunesse, musicien, compositeur, arrangeur et directeur de publication audio.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kai_L%C3%BCftner</t>
+          <t>Kai_Lüftner</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kai Lüftner fait des études de pédagogie sociale[2]. Les années suivantes, il occupe de multiples « petits boulots » : streetworker et travailleur social, manœuvre dans le bâtiment, livreur de pizzas, groom, organisateur de concerts, rédacteur en chef à la radio, travaille dans des agences de publicité, et enfin, entame une carrière d'auteur-compositeur et de comédien. Il trouve la notoriété en menant ses propres projets comme écrivain et compositeur pour enfants[3].
-En 2012, il publie son premier livre pour enfants "Die weltbeste Lilli" (Le meilleur du monde Lilli), qui est ajouté à la collection pour enfants "petits grands livres"[4].
-En tant que musicien et compositeur, il publie, en 2014, son projet musical « ROTZ « N » ROLL RADIO »[5]. A l'origine, c'est une idée de chanson pour enfants pour son fils. C'est son premier CD musical. Il travaille sur ce projet avec Bürger Lars Dietrich, Anna Thalbach, Tetje Mierdorf, Jürgen von der Lippe, Simon Hunter, Tanja Geke, Cathlen Gawlich.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kai Lüftner fait des études de pédagogie sociale. Les années suivantes, il occupe de multiples « petits boulots » : streetworker et travailleur social, manœuvre dans le bâtiment, livreur de pizzas, groom, organisateur de concerts, rédacteur en chef à la radio, travaille dans des agences de publicité, et enfin, entame une carrière d'auteur-compositeur et de comédien. Il trouve la notoriété en menant ses propres projets comme écrivain et compositeur pour enfants.
+En 2012, il publie son premier livre pour enfants "Die weltbeste Lilli" (Le meilleur du monde Lilli), qui est ajouté à la collection pour enfants "petits grands livres".
+En tant que musicien et compositeur, il publie, en 2014, son projet musical « ROTZ « N » ROLL RADIO ». A l'origine, c'est une idée de chanson pour enfants pour son fils. C'est son premier CD musical. Il travaille sur ce projet avec Bürger Lars Dietrich, Anna Thalbach, Tetje Mierdorf, Jürgen von der Lippe, Simon Hunter, Tanja Geke, Cathlen Gawlich.
 Il vit avec sa femme et son fils à Berlin.
 </t>
         </is>
